--- a/1 feb/Book1.xlsx
+++ b/1 feb/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\ExcelInClass\1 feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B5C45-9C7B-4A8E-AA87-BD79D31C054A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58875BF6-DA35-4892-A899-5B830481D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{ADCEC551-64B2-47F6-BB8A-7485FE4F4BC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{ADCEC551-64B2-47F6-BB8A-7485FE4F4BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -281,6 +281,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -295,35 +302,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -490,174 +469,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1142,60 +953,60 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="top10" dxfId="26" priority="1" bottom="1" rank="2"/>
-    <cfRule type="aboveAverage" dxfId="25" priority="4" aboveAverage="0"/>
-    <cfRule type="top10" dxfId="24" priority="6" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="23" priority="7" rank="4"/>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="greaterThan">
+    <cfRule type="top10" dxfId="23" priority="1" bottom="1" rank="2"/>
+    <cfRule type="aboveAverage" dxfId="22" priority="4" aboveAverage="0"/>
+    <cfRule type="top10" dxfId="21" priority="6" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="7" rank="4"/>
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="between">
       <formula>30</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B10:B11 B3:B8">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",B1)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Tue">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Tue">
       <formula>NOT(ISERROR(SEARCH("Tue",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C11">
-    <cfRule type="top10" dxfId="13" priority="10" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="11" rank="2"/>
-    <cfRule type="timePeriod" dxfId="11" priority="12" timePeriod="lastMonth">
+    <cfRule type="top10" dxfId="10" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="11" rank="2"/>
+    <cfRule type="timePeriod" dxfId="8" priority="12" timePeriod="lastMonth">
       <formula>AND(MONTH(C1)=MONTH(EDATE(TODAY(),0-1)),YEAR(C1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="14" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="7" priority="14" timePeriod="thisMonth">
       <formula>AND(MONTH(C1)=MONTH(TODAY()),YEAR(C1)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="timePeriod" dxfId="9" priority="8" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="6" priority="8" timePeriod="yesterday">
       <formula>FLOOR(C2,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="5" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A11">
     <cfRule type="dataBar" priority="2">
@@ -1238,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EFE6F6-9DAD-43F5-A2B7-6E058D806F23}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="155" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1564,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1669,24 +1480,24 @@
   <mergeCells count="1">
     <mergeCell ref="A12:B12"/>
   </mergeCells>
+  <conditionalFormatting sqref="A14:D21">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$A14=$F$15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A27:D34">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>($A27=$F$27)+(A$26=$G$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:D21">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$A14=$F$15</formula>
+  <conditionalFormatting sqref="C2:C9">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B2=$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A2=$F$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$B2=$F$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A9E30A-6ADC-4251-9751-7888BB31D783}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1846,7 +1657,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D9">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>($A2=$F$3)*($B2=$G$3)</formula>
     </cfRule>
   </conditionalFormatting>
